--- a/Johana Miller_.xlsx
+++ b/Johana Miller_.xlsx
@@ -16,7 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>Johana Miller</t>
+  </si>
+  <si>
+    <t>Average Students</t>
+  </si>
+  <si>
+    <t>Average Tabby</t>
+  </si>
+  <si>
+    <t>Students/Tabby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 8:40 PM -  Tue 10:20 PM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,14 +435,182 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4"/>
+    <row r="3" spans="1:4"/>
+    <row r="4" spans="1:4"/>
+    <row r="5" spans="1:4"/>
+    <row r="6" spans="1:4"/>
+    <row r="7" spans="1:4"/>
+    <row r="8" spans="1:4"/>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4"/>
+    <row r="12" spans="1:4"/>
+    <row r="13" spans="1:4"/>
+    <row r="14" spans="1:4"/>
+    <row r="15" spans="1:4"/>
+    <row r="16" spans="1:4"/>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4"/>
+    <row r="19" spans="1:4"/>
+    <row r="20" spans="1:4"/>
+    <row r="21" spans="1:4"/>
+    <row r="22" spans="1:4"/>
+    <row r="23" spans="1:4"/>
+    <row r="24" spans="1:4"/>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4"/>
+    <row r="27" spans="1:4"/>
+    <row r="28" spans="1:4"/>
+    <row r="29" spans="1:4"/>
+    <row r="30" spans="1:4"/>
+    <row r="31" spans="1:4"/>
+    <row r="32" spans="1:4"/>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4"/>
+    <row r="35" spans="1:4"/>
+    <row r="36" spans="1:4"/>
+    <row r="37" spans="1:4"/>
+    <row r="38" spans="1:4"/>
+    <row r="39" spans="1:4"/>
+    <row r="40" spans="1:4"/>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4"/>
+    <row r="43" spans="1:4"/>
+    <row r="44" spans="1:4"/>
+    <row r="45" spans="1:4"/>
+    <row r="46" spans="1:4"/>
+    <row r="47" spans="1:4"/>
+    <row r="48" spans="1:4"/>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4"/>
+    <row r="51" spans="1:4"/>
+    <row r="52" spans="1:4"/>
+    <row r="53" spans="1:4"/>
+    <row r="54" spans="1:4"/>
+    <row r="55" spans="1:4"/>
+    <row r="56" spans="1:4"/>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Johana Miller_.xlsx
+++ b/Johana Miller_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Johana Miller</t>
   </si>
@@ -30,7 +30,58 @@
     <t>Students/Tabby</t>
   </si>
   <si>
+    <t>Weekly Summary</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mon Day Summary</t>
+  </si>
+  <si>
+    <t>Mon Night Average</t>
+  </si>
+  <si>
+    <t>Tue Day Summary</t>
+  </si>
+  <si>
+    <t>Tue Night Average</t>
+  </si>
+  <si>
+    <t>Wed Day Summary</t>
+  </si>
+  <si>
+    <t>Wed Night Average</t>
+  </si>
+  <si>
+    <t>Thu Day Summary</t>
+  </si>
+  <si>
+    <t>Thu Night Average</t>
+  </si>
+  <si>
+    <t>Fri Day Summary</t>
+  </si>
+  <si>
+    <t>Fri Night Average</t>
+  </si>
+  <si>
+    <t>Sat Day Summary</t>
+  </si>
+  <si>
+    <t>Sat Night Average</t>
+  </si>
+  <si>
+    <t>Sun Day Summary</t>
+  </si>
+  <si>
+    <t>Sun Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tue 8:40 PM -  Tue 10:20 PM</t>
+  </si>
+  <si>
+    <t>Weekly Average</t>
   </si>
 </sst>
 </file>
@@ -47,12 +98,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7d28a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6c0ed"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,8 +128,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -435,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,9 +511,13 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="16"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="16"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,15 +530,87 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4"/>
-    <row r="3" spans="1:4"/>
-    <row r="4" spans="1:4"/>
-    <row r="5" spans="1:4"/>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
-    <row r="9" spans="1:4">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -484,10 +623,18 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>0.8100000000000001</v>
@@ -498,14 +645,20 @@
       <c r="D10" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4"/>
-    <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4"/>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17" spans="1:4">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10"/>
+    <row r="12" spans="1:10"/>
+    <row r="13" spans="1:10"/>
+    <row r="14" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -519,14 +672,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4"/>
-    <row r="19" spans="1:4"/>
-    <row r="20" spans="1:4"/>
-    <row r="21" spans="1:4"/>
-    <row r="22" spans="1:4"/>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4">
+    <row r="18" spans="1:10"/>
+    <row r="19" spans="1:10"/>
+    <row r="20" spans="1:10"/>
+    <row r="21" spans="1:10"/>
+    <row r="22" spans="1:10"/>
+    <row r="23" spans="1:10"/>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -540,14 +693,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4"/>
-    <row r="27" spans="1:4"/>
-    <row r="28" spans="1:4"/>
-    <row r="29" spans="1:4"/>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33" spans="1:4">
+    <row r="26" spans="1:10"/>
+    <row r="27" spans="1:10"/>
+    <row r="28" spans="1:10"/>
+    <row r="29" spans="1:10"/>
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -561,14 +714,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4"/>
-    <row r="35" spans="1:4"/>
-    <row r="36" spans="1:4"/>
-    <row r="37" spans="1:4"/>
-    <row r="38" spans="1:4"/>
-    <row r="39" spans="1:4"/>
-    <row r="40" spans="1:4"/>
-    <row r="41" spans="1:4">
+    <row r="34" spans="1:10"/>
+    <row r="35" spans="1:10"/>
+    <row r="36" spans="1:10"/>
+    <row r="37" spans="1:10"/>
+    <row r="38" spans="1:10"/>
+    <row r="39" spans="1:10"/>
+    <row r="40" spans="1:10"/>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -582,14 +735,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4"/>
-    <row r="43" spans="1:4"/>
-    <row r="44" spans="1:4"/>
-    <row r="45" spans="1:4"/>
-    <row r="46" spans="1:4"/>
-    <row r="47" spans="1:4"/>
-    <row r="48" spans="1:4"/>
-    <row r="49" spans="1:4">
+    <row r="42" spans="1:10"/>
+    <row r="43" spans="1:10"/>
+    <row r="44" spans="1:10"/>
+    <row r="45" spans="1:10"/>
+    <row r="46" spans="1:10"/>
+    <row r="47" spans="1:10"/>
+    <row r="48" spans="1:10"/>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -603,13 +756,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4"/>
-    <row r="51" spans="1:4"/>
-    <row r="52" spans="1:4"/>
-    <row r="53" spans="1:4"/>
-    <row r="54" spans="1:4"/>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
+    <row r="50" spans="1:10"/>
+    <row r="51" spans="1:10"/>
+    <row r="52" spans="1:10"/>
+    <row r="53" spans="1:10"/>
+    <row r="54" spans="1:10"/>
+    <row r="55" spans="1:10"/>
+    <row r="56" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Johana Miller_.xlsx
+++ b/Johana Miller_.xlsx
@@ -89,13 +89,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="4">
@@ -128,10 +136,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -511,10 +521,10 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="7" min="7" width="16"/>
-    <col customWidth="1" max="8" min="8" width="16"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -530,7 +540,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -549,66 +559,66 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="n"/>
+      <c r="J3" s="3" t="n"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2" t="n"/>
+      <c r="J5" s="3" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="2" t="n"/>
+      <c r="J6" s="3" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="2" t="n"/>
+      <c r="J7" s="3" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2" t="n"/>
+      <c r="J8" s="3" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -623,14 +633,14 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="n"/>
+      <c r="J9" s="3" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -645,10 +655,12 @@
       <c r="D10" t="n">
         <v>0.45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="n">
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n">
         <v>0.45</v>
       </c>
     </row>
